--- a/sputnik/personal/ee/96ee.xlsx
+++ b/sputnik/personal/ee/96ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,17 +39,29 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>?</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +110,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -117,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,39 +152,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -185,29 +169,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -228,10 +197,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -294,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,10 +298,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +332,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -537,323 +507,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43253</v>
+        <v>43337</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3048</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="3">
+        <v>3355</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>726</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>825</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43316</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="17">
+        <v>43653</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>3194</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>146</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>657</v>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="18">
+        <v>917.02</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>917.02</v>
+      </c>
+      <c r="H4" s="2">
+        <v>917.02</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>786</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>60</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>141</v>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43337</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3355</v>
-      </c>
-      <c r="D6" s="3">
-        <f>C6-C4</f>
-        <v>161</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>724.5</v>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(G2:G5)</f>
+        <v>917.02</v>
+      </c>
+      <c r="H6" s="8">
+        <f>SUM(H2:H5)</f>
+        <v>917.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>825</v>
-      </c>
-      <c r="D7" s="3">
-        <f>C7-C5</f>
-        <v>39</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>91.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>43653</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="24">
-        <v>917.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -863,12 +671,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,12 +685,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/96ee.xlsx
+++ b/sputnik/personal/ee/96ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +333,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -507,7 +509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -517,7 +519,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
@@ -532,7 +534,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -558,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43337</v>
       </c>
@@ -574,7 +576,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -588,7 +590,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>43653</v>
       </c>
@@ -615,7 +617,7 @@
         <v>917.02</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
         <v>1</v>
@@ -635,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="3"/>
@@ -653,7 +655,7 @@
         <v>917.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="11"/>
       <c r="C7" s="3"/>
@@ -671,12 +673,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -685,12 +687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/96ee.xlsx
+++ b/sputnik/personal/ee/96ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,32 +638,78 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="17">
+        <v>44055</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G8" s="8">
         <f>SUM(G2:G5)</f>
         <v>917.02</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H8" s="8">
         <f>SUM(H2:H5)</f>
         <v>917.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/96ee.xlsx
+++ b/sputnik/personal/ee/96ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,17 +507,18 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>3543</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <f>SUM(C4,-C2)</f>
+        <v>188</v>
       </c>
       <c r="E4" s="3">
         <v>4.49</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F11" si="0">D4*E4</f>
-        <v>0</v>
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
+        <v>844.12</v>
       </c>
       <c r="G4" s="8">
         <v>917.2</v>
@@ -532,17 +533,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <f>SUM(C5,-C3)</f>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -558,7 +560,6 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D4:D11" si="1">SUM(C6,-C4)</f>
         <v>0</v>
       </c>
       <c r="E6" s="3">
@@ -568,9 +569,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="8">
-        <v>1000</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="3">
         <v>1000</v>
       </c>
@@ -584,7 +583,6 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -598,42 +596,95 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="4">
+        <v>44296</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3875</v>
+      </c>
+      <c r="D8" s="3">
+        <v>332</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>1563.72</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>1818.72</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>955</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="4">
+        <v>44217</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3875</v>
+      </c>
+      <c r="D10" s="3">
+        <v>332</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="1">D10*E10</f>
+        <v>1563.72</v>
+      </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>818.72</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>955</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>

--- a/sputnik/personal/ee/96ee.xlsx
+++ b/sputnik/personal/ee/96ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +82,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -145,8 +137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,7 +420,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +634,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44217</v>
+        <v>44307</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -691,11 +681,11 @@
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -705,7 +695,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">

--- a/sputnik/personal/ee/96ee.xlsx
+++ b/sputnik/personal/ee/96ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,22 +679,51 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="4">
+        <v>44410</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4075</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="2">D12*E12</f>
+        <v>992</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>1260</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1260</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1055</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
